--- a/docs/期末项目打分表.xlsx
+++ b/docs/期末项目打分表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenology/Documents/GitHub/MBA_TA_manual/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D247FAAC-828C-8645-8523-F08ED1010DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E36EB05-E6B8-FE4B-902E-83BA254DDBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25540" windowHeight="14360" xr2:uid="{87CF5328-FBEB-9442-9026-F7B17F868462}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="38400" windowHeight="19480" xr2:uid="{87CF5328-FBEB-9442-9026-F7B17F868462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet2!$A$1:$F$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet2!$A:$F</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,11 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>组号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>组名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,13 +54,6 @@
   </si>
   <si>
     <t>其他得分（25分）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 数据介绍（5分），清楚明白
-2. 使用的方法（10-20分），
-    简单有效，讲解清楚明白（10-20分）
-    有借鉴，引用清晰，且有自己的实现和创新（0-10分）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -73,24 +62,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>背景介绍（25分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《实用商务数据分析与预测》期末项目打分表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 问题描述是否清楚（10分）
+2. 从问题过渡到X和Y的问题是否清晰（10分）
+3. 加分项（5分），开头引人入胜，问题别出心裁，PPT图文并茂，没有堆砌过多的文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. Q&amp;A（10分），不卑不亢，不强行解释
 2. 不超时（5分）
-3. 没有任何意外（5分），包括投屏失败、声音无权限等等
-4. PPT制作清晰明了，没有堆砌大段代码（5分）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 问题描述是否清楚（10分）
-2. 从问题过渡到X和Y的问题是否清晰（10分）
-3. 加分项（5分），开头引人入胜，问题别出心裁，图文并茂，没有堆砌过多的文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景介绍（25分）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《xx课程》期末项目打分表</t>
+3. 没有任何意外（5分）
+4. PPT制作清晰明了，没有堆砌大段代码或大段文字（5分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 数据来源及介绍（5分），清楚明白
+2. 使用的方法（20分），恰当有效，讲解清楚明白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写1-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,8 +126,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -214,32 +233,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -261,7 +289,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -549,7 +577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -557,157 +585,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8C509D-C532-1E48-9501-C7575ACED203}">
-  <dimension ref="A1:F18"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B11"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" customWidth="1"/>
-    <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="40" style="10" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="132" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="80" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="119" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="80" customHeight="1">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="80" customHeight="1">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="80" customHeight="1">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="80" customHeight="1">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="80" customHeight="1">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="80" customHeight="1">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="80" customHeight="1">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="80" customHeight="1">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18"/>
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="2"/>
 </worksheet>
 </file>